--- a/Rooms Lookup.xlsx
+++ b/Rooms Lookup.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Conference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Conference\HEC-Youth-Conference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -30,38 +30,1019 @@
     <t>Room Number</t>
   </si>
   <si>
-    <t>adel</t>
-  </si>
-  <si>
     <t>Room #101</t>
   </si>
   <si>
-    <t>mina</t>
-  </si>
-  <si>
     <t>Room #102</t>
   </si>
   <si>
-    <t>martin</t>
-  </si>
-  <si>
     <t>Room #103</t>
   </si>
   <si>
     <t>01275470585</t>
   </si>
   <si>
-    <t>01275470589</t>
-  </si>
-  <si>
-    <t>01275470580</t>
+    <t>Mark Nader</t>
+  </si>
+  <si>
+    <t>Remon raafat nassif</t>
+  </si>
+  <si>
+    <t>Rina Michelle</t>
+  </si>
+  <si>
+    <t>Sylvia Nader</t>
+  </si>
+  <si>
+    <t>Mira Raafat</t>
+  </si>
+  <si>
+    <t>Yasmin emad</t>
+  </si>
+  <si>
+    <t>Joy El Alfy</t>
+  </si>
+  <si>
+    <t>Baher Wael</t>
+  </si>
+  <si>
+    <t>Jano Karam</t>
+  </si>
+  <si>
+    <t>Basemrefaat</t>
+  </si>
+  <si>
+    <t>Sandra rafik</t>
+  </si>
+  <si>
+    <t>Koky samaan</t>
+  </si>
+  <si>
+    <t>Mafdy</t>
+  </si>
+  <si>
+    <t>Raef wasfy</t>
+  </si>
+  <si>
+    <t>Madonna monir</t>
+  </si>
+  <si>
+    <t>David Kodsy</t>
+  </si>
+  <si>
+    <t>Nardeen Nabil</t>
+  </si>
+  <si>
+    <t>Joy Nabil Makram</t>
+  </si>
+  <si>
+    <t>Mark atef</t>
+  </si>
+  <si>
+    <t>Merna Yasser Naiem</t>
+  </si>
+  <si>
+    <t>Merna Maged</t>
+  </si>
+  <si>
+    <t>Fady Adel</t>
+  </si>
+  <si>
+    <t>Fady Eskander</t>
+  </si>
+  <si>
+    <t>Katrin Ragy</t>
+  </si>
+  <si>
+    <t>Joyce Sameh</t>
+  </si>
+  <si>
+    <t>Jolie Sameh</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Lugy Medhat Roushdy</t>
+  </si>
+  <si>
+    <t>Fady ashraf</t>
+  </si>
+  <si>
+    <t>Martina Makram</t>
+  </si>
+  <si>
+    <t>Jolly Ashraf</t>
+  </si>
+  <si>
+    <t>Nader John</t>
+  </si>
+  <si>
+    <t>Daniel hany</t>
+  </si>
+  <si>
+    <t>Mina hany</t>
+  </si>
+  <si>
+    <t>Tony bahaa</t>
+  </si>
+  <si>
+    <t>Ibrahim yacoub</t>
+  </si>
+  <si>
+    <t>Madonna Reda Elias</t>
+  </si>
+  <si>
+    <t>Andy Francois</t>
+  </si>
+  <si>
+    <t>Noha Mourad</t>
+  </si>
+  <si>
+    <t>Francois Alfred</t>
+  </si>
+  <si>
+    <t>Mark bassem</t>
+  </si>
+  <si>
+    <t>Laurice Hanna</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Sevo Sameh</t>
+  </si>
+  <si>
+    <t>Mario raafat</t>
+  </si>
+  <si>
+    <t>Clara john</t>
+  </si>
+  <si>
+    <t>Marven Maged</t>
+  </si>
+  <si>
+    <t>Andrew Baher</t>
+  </si>
+  <si>
+    <t>Sandy Hany</t>
+  </si>
+  <si>
+    <t>Jessy Hany</t>
+  </si>
+  <si>
+    <t>Nardine naeem</t>
+  </si>
+  <si>
+    <t>Paula adel</t>
+  </si>
+  <si>
+    <t>Fady fekry</t>
+  </si>
+  <si>
+    <t>Caren ehab</t>
+  </si>
+  <si>
+    <t>Karim hany eyssa</t>
+  </si>
+  <si>
+    <t>Sandy Adel</t>
+  </si>
+  <si>
+    <t>Mariem Basem</t>
+  </si>
+  <si>
+    <t>Ramy Reda samuel Estfanous</t>
+  </si>
+  <si>
+    <t>Beshoy Gerges</t>
+  </si>
+  <si>
+    <t>mira magdy</t>
+  </si>
+  <si>
+    <t>فؤاد شاكر فؤاد</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>madonna</t>
+  </si>
+  <si>
+    <t>Baher Magdy Nagy</t>
+  </si>
+  <si>
+    <t>Bassem Hany eyssa shaker</t>
+  </si>
+  <si>
+    <t>Arnsha Medhat Roushdy</t>
+  </si>
+  <si>
+    <t>Bishoy Galal</t>
+  </si>
+  <si>
+    <t>Martin Sameh</t>
+  </si>
+  <si>
+    <t>Joyce Aziz</t>
+  </si>
+  <si>
+    <t>Basma Boules</t>
+  </si>
+  <si>
+    <t>Nardine sabry</t>
+  </si>
+  <si>
+    <t>Basem Boules</t>
+  </si>
+  <si>
+    <t>Holy Ashraf</t>
+  </si>
+  <si>
+    <t>Raed George</t>
+  </si>
+  <si>
+    <t>Youssef Ayman</t>
+  </si>
+  <si>
+    <t>Nervana nagy</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Adel Makram</t>
+  </si>
+  <si>
+    <t>martin hany</t>
+  </si>
+  <si>
+    <t>Maria Raafat</t>
+  </si>
+  <si>
+    <t>Pastor Sameh</t>
+  </si>
+  <si>
+    <t>Steven Sameh</t>
+  </si>
+  <si>
+    <t>Youssa</t>
+  </si>
+  <si>
+    <t>pierre george</t>
+  </si>
+  <si>
+    <t>01062358016</t>
+  </si>
+  <si>
+    <t>01220774317</t>
+  </si>
+  <si>
+    <t>01150209751</t>
+  </si>
+  <si>
+    <t>01008956591</t>
+  </si>
+  <si>
+    <t>01207787731</t>
+  </si>
+  <si>
+    <t>01289198567</t>
+  </si>
+  <si>
+    <t>01289435411</t>
+  </si>
+  <si>
+    <t>01286973407</t>
+  </si>
+  <si>
+    <t>01202685558</t>
+  </si>
+  <si>
+    <t>01221074555</t>
+  </si>
+  <si>
+    <t>01282142343</t>
+  </si>
+  <si>
+    <t>01274479062</t>
+  </si>
+  <si>
+    <t>01206165373</t>
+  </si>
+  <si>
+    <t>01277782241</t>
+  </si>
+  <si>
+    <t>01277105440</t>
+  </si>
+  <si>
+    <t>01286028426</t>
+  </si>
+  <si>
+    <t>01062271074</t>
+  </si>
+  <si>
+    <t>01283228891</t>
+  </si>
+  <si>
+    <t>01273582107</t>
+  </si>
+  <si>
+    <t>01280465898</t>
+  </si>
+  <si>
+    <t>01027335480</t>
+  </si>
+  <si>
+    <t>01068792237</t>
+  </si>
+  <si>
+    <t>01222370806</t>
+  </si>
+  <si>
+    <t>01281977501</t>
+  </si>
+  <si>
+    <t>01276468995</t>
+  </si>
+  <si>
+    <t>01550122131</t>
+  </si>
+  <si>
+    <t>01276015853</t>
+  </si>
+  <si>
+    <t>01276623802</t>
+  </si>
+  <si>
+    <t>01202712469</t>
+  </si>
+  <si>
+    <t>01283871701</t>
+  </si>
+  <si>
+    <t>01280872785</t>
+  </si>
+  <si>
+    <t>01274324089</t>
+  </si>
+  <si>
+    <t>01275565590</t>
+  </si>
+  <si>
+    <t>01284040573</t>
+  </si>
+  <si>
+    <t>01289678888</t>
+  </si>
+  <si>
+    <t>01227386660</t>
+  </si>
+  <si>
+    <t>01224406174</t>
+  </si>
+  <si>
+    <t>01220827369</t>
+  </si>
+  <si>
+    <t>01013783669</t>
+  </si>
+  <si>
+    <t>01020867073</t>
+  </si>
+  <si>
+    <t>01226911625</t>
+  </si>
+  <si>
+    <t>01201386965</t>
+  </si>
+  <si>
+    <t>01227126484</t>
+  </si>
+  <si>
+    <t>01221195008</t>
+  </si>
+  <si>
+    <t>01220002145</t>
+  </si>
+  <si>
+    <t>01220002146</t>
+  </si>
+  <si>
+    <t>01203936840</t>
+  </si>
+  <si>
+    <t>01065075098</t>
+  </si>
+  <si>
+    <t>01204780510</t>
+  </si>
+  <si>
+    <t>01284419915</t>
+  </si>
+  <si>
+    <t>01273444557</t>
+  </si>
+  <si>
+    <t>01281525254</t>
+  </si>
+  <si>
+    <t>01289486455</t>
+  </si>
+  <si>
+    <t>01013229363</t>
+  </si>
+  <si>
+    <t>01204011516</t>
+  </si>
+  <si>
+    <t>01271310895</t>
+  </si>
+  <si>
+    <t>01274256228</t>
+  </si>
+  <si>
+    <t>01006858672</t>
+  </si>
+  <si>
+    <t>01200782295</t>
+  </si>
+  <si>
+    <t>01205565279</t>
+  </si>
+  <si>
+    <t>01201284664</t>
+  </si>
+  <si>
+    <t>01557306447</t>
+  </si>
+  <si>
+    <t>01274552310</t>
+  </si>
+  <si>
+    <t>01281039970</t>
+  </si>
+  <si>
+    <t>01286583670</t>
+  </si>
+  <si>
+    <t>01288308160</t>
+  </si>
+  <si>
+    <t>01277706893</t>
+  </si>
+  <si>
+    <t>01270352772</t>
+  </si>
+  <si>
+    <t>01284433826</t>
+  </si>
+  <si>
+    <t>01003418668</t>
+  </si>
+  <si>
+    <t>01206345643</t>
+  </si>
+  <si>
+    <t>01208154442</t>
+  </si>
+  <si>
+    <t>01270836969</t>
+  </si>
+  <si>
+    <t>01208481516</t>
+  </si>
+  <si>
+    <t>01121871777</t>
+  </si>
+  <si>
+    <t>01201231640</t>
+  </si>
+  <si>
+    <t>01227605423</t>
+  </si>
+  <si>
+    <t>01283599044</t>
+  </si>
+  <si>
+    <t>01221292060</t>
+  </si>
+  <si>
+    <t>01227445085</t>
+  </si>
+  <si>
+    <t>01558379989</t>
+  </si>
+  <si>
+    <t>01205739529</t>
+  </si>
+  <si>
+    <t>Room #104</t>
+  </si>
+  <si>
+    <t>Room #105</t>
+  </si>
+  <si>
+    <t>Room #106</t>
+  </si>
+  <si>
+    <t>Room #107</t>
+  </si>
+  <si>
+    <t>Room #108</t>
+  </si>
+  <si>
+    <t>Room #109</t>
+  </si>
+  <si>
+    <t>Room #110</t>
+  </si>
+  <si>
+    <t>Room #111</t>
+  </si>
+  <si>
+    <t>Room #112</t>
+  </si>
+  <si>
+    <t>Room #113</t>
+  </si>
+  <si>
+    <t>Room #114</t>
+  </si>
+  <si>
+    <t>Room #115</t>
+  </si>
+  <si>
+    <t>Room #116</t>
+  </si>
+  <si>
+    <t>Room #117</t>
+  </si>
+  <si>
+    <t>Room #118</t>
+  </si>
+  <si>
+    <t>Room #119</t>
+  </si>
+  <si>
+    <t>Room #120</t>
+  </si>
+  <si>
+    <t>Room #121</t>
+  </si>
+  <si>
+    <t>Room #122</t>
+  </si>
+  <si>
+    <t>Room #123</t>
+  </si>
+  <si>
+    <t>Room #124</t>
+  </si>
+  <si>
+    <t>Room #125</t>
+  </si>
+  <si>
+    <t>Room #126</t>
+  </si>
+  <si>
+    <t>Room #127</t>
+  </si>
+  <si>
+    <t>Room #128</t>
+  </si>
+  <si>
+    <t>Room #129</t>
+  </si>
+  <si>
+    <t>Room #130</t>
+  </si>
+  <si>
+    <t>Room #131</t>
+  </si>
+  <si>
+    <t>Room #132</t>
+  </si>
+  <si>
+    <t>Room #133</t>
+  </si>
+  <si>
+    <t>Room #134</t>
+  </si>
+  <si>
+    <t>Room #135</t>
+  </si>
+  <si>
+    <t>Room #136</t>
+  </si>
+  <si>
+    <t>Room #137</t>
+  </si>
+  <si>
+    <t>Room #138</t>
+  </si>
+  <si>
+    <t>Room #139</t>
+  </si>
+  <si>
+    <t>Room #140</t>
+  </si>
+  <si>
+    <t>Room #141</t>
+  </si>
+  <si>
+    <t>Room #142</t>
+  </si>
+  <si>
+    <t>Room #143</t>
+  </si>
+  <si>
+    <t>Room #144</t>
+  </si>
+  <si>
+    <t>Room #145</t>
+  </si>
+  <si>
+    <t>Room #146</t>
+  </si>
+  <si>
+    <t>Room #147</t>
+  </si>
+  <si>
+    <t>Room #148</t>
+  </si>
+  <si>
+    <t>Room #149</t>
+  </si>
+  <si>
+    <t>Room #150</t>
+  </si>
+  <si>
+    <t>Room #151</t>
+  </si>
+  <si>
+    <t>Room #152</t>
+  </si>
+  <si>
+    <t>Room #153</t>
+  </si>
+  <si>
+    <t>Room #154</t>
+  </si>
+  <si>
+    <t>Room #155</t>
+  </si>
+  <si>
+    <t>Room #156</t>
+  </si>
+  <si>
+    <t>Room #157</t>
+  </si>
+  <si>
+    <t>Room #158</t>
+  </si>
+  <si>
+    <t>Room #159</t>
+  </si>
+  <si>
+    <t>Room #160</t>
+  </si>
+  <si>
+    <t>Room #161</t>
+  </si>
+  <si>
+    <t>Room #162</t>
+  </si>
+  <si>
+    <t>Room #163</t>
+  </si>
+  <si>
+    <t>Room #164</t>
+  </si>
+  <si>
+    <t>Room #165</t>
+  </si>
+  <si>
+    <t>Room #166</t>
+  </si>
+  <si>
+    <t>Room #167</t>
+  </si>
+  <si>
+    <t>Room #168</t>
+  </si>
+  <si>
+    <t>Room #169</t>
+  </si>
+  <si>
+    <t>Room #170</t>
+  </si>
+  <si>
+    <t>Room #171</t>
+  </si>
+  <si>
+    <t>Room #172</t>
+  </si>
+  <si>
+    <t>Room #173</t>
+  </si>
+  <si>
+    <t>Room #174</t>
+  </si>
+  <si>
+    <t>Room #175</t>
+  </si>
+  <si>
+    <t>Room #176</t>
+  </si>
+  <si>
+    <t>Room #177</t>
+  </si>
+  <si>
+    <t>Room #178</t>
+  </si>
+  <si>
+    <t>Room #179</t>
+  </si>
+  <si>
+    <t>Room #180</t>
+  </si>
+  <si>
+    <t>Room #181</t>
+  </si>
+  <si>
+    <t>Room #182</t>
+  </si>
+  <si>
+    <t>Room #183</t>
+  </si>
+  <si>
+    <t>Room #184</t>
+  </si>
+  <si>
+    <t>Group Number</t>
+  </si>
+  <si>
+    <t>Group #1</t>
+  </si>
+  <si>
+    <t>Group #2</t>
+  </si>
+  <si>
+    <t>Group #3</t>
+  </si>
+  <si>
+    <t>Group #4</t>
+  </si>
+  <si>
+    <t>Group #5</t>
+  </si>
+  <si>
+    <t>Group #6</t>
+  </si>
+  <si>
+    <t>Group #7</t>
+  </si>
+  <si>
+    <t>Group #8</t>
+  </si>
+  <si>
+    <t>Group #9</t>
+  </si>
+  <si>
+    <t>Group #10</t>
+  </si>
+  <si>
+    <t>Group #11</t>
+  </si>
+  <si>
+    <t>Group #12</t>
+  </si>
+  <si>
+    <t>Group #13</t>
+  </si>
+  <si>
+    <t>Group #14</t>
+  </si>
+  <si>
+    <t>Group #15</t>
+  </si>
+  <si>
+    <t>Group #16</t>
+  </si>
+  <si>
+    <t>Group #17</t>
+  </si>
+  <si>
+    <t>Group #18</t>
+  </si>
+  <si>
+    <t>Group #19</t>
+  </si>
+  <si>
+    <t>Group #20</t>
+  </si>
+  <si>
+    <t>Group #21</t>
+  </si>
+  <si>
+    <t>Group #22</t>
+  </si>
+  <si>
+    <t>Group #23</t>
+  </si>
+  <si>
+    <t>Group #24</t>
+  </si>
+  <si>
+    <t>Group #25</t>
+  </si>
+  <si>
+    <t>Group #26</t>
+  </si>
+  <si>
+    <t>Group #27</t>
+  </si>
+  <si>
+    <t>Group #28</t>
+  </si>
+  <si>
+    <t>Group #29</t>
+  </si>
+  <si>
+    <t>Group #30</t>
+  </si>
+  <si>
+    <t>Group #31</t>
+  </si>
+  <si>
+    <t>Group #32</t>
+  </si>
+  <si>
+    <t>Group #33</t>
+  </si>
+  <si>
+    <t>Group #34</t>
+  </si>
+  <si>
+    <t>Group #35</t>
+  </si>
+  <si>
+    <t>Group #36</t>
+  </si>
+  <si>
+    <t>Group #37</t>
+  </si>
+  <si>
+    <t>Group #38</t>
+  </si>
+  <si>
+    <t>Group #39</t>
+  </si>
+  <si>
+    <t>Group #40</t>
+  </si>
+  <si>
+    <t>Group #41</t>
+  </si>
+  <si>
+    <t>Group #42</t>
+  </si>
+  <si>
+    <t>Group #43</t>
+  </si>
+  <si>
+    <t>Group #44</t>
+  </si>
+  <si>
+    <t>Group #45</t>
+  </si>
+  <si>
+    <t>Group #46</t>
+  </si>
+  <si>
+    <t>Group #47</t>
+  </si>
+  <si>
+    <t>Group #48</t>
+  </si>
+  <si>
+    <t>Group #49</t>
+  </si>
+  <si>
+    <t>Group #50</t>
+  </si>
+  <si>
+    <t>Group #51</t>
+  </si>
+  <si>
+    <t>Group #52</t>
+  </si>
+  <si>
+    <t>Group #53</t>
+  </si>
+  <si>
+    <t>Group #54</t>
+  </si>
+  <si>
+    <t>Group #55</t>
+  </si>
+  <si>
+    <t>Group #56</t>
+  </si>
+  <si>
+    <t>Group #57</t>
+  </si>
+  <si>
+    <t>Group #58</t>
+  </si>
+  <si>
+    <t>Group #59</t>
+  </si>
+  <si>
+    <t>Group #60</t>
+  </si>
+  <si>
+    <t>Group #61</t>
+  </si>
+  <si>
+    <t>Group #62</t>
+  </si>
+  <si>
+    <t>Group #63</t>
+  </si>
+  <si>
+    <t>Group #64</t>
+  </si>
+  <si>
+    <t>Group #65</t>
+  </si>
+  <si>
+    <t>Group #66</t>
+  </si>
+  <si>
+    <t>Group #67</t>
+  </si>
+  <si>
+    <t>Group #68</t>
+  </si>
+  <si>
+    <t>Group #69</t>
+  </si>
+  <si>
+    <t>Group #70</t>
+  </si>
+  <si>
+    <t>Group #71</t>
+  </si>
+  <si>
+    <t>Group #72</t>
+  </si>
+  <si>
+    <t>Group #73</t>
+  </si>
+  <si>
+    <t>Group #74</t>
+  </si>
+  <si>
+    <t>Group #75</t>
+  </si>
+  <si>
+    <t>Group #76</t>
+  </si>
+  <si>
+    <t>Group #77</t>
+  </si>
+  <si>
+    <t>Group #78</t>
+  </si>
+  <si>
+    <t>Group #79</t>
+  </si>
+  <si>
+    <t>Group #80</t>
+  </si>
+  <si>
+    <t>Group #81</t>
+  </si>
+  <si>
+    <t>Group #82</t>
+  </si>
+  <si>
+    <t>Group #83</t>
+  </si>
+  <si>
+    <t>Group #84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +1176,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -538,9 +1532,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -862,60 +1872,1208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C79" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/Rooms Lookup.xlsx
+++ b/Rooms Lookup.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="343">
   <si>
     <t>Name</t>
   </si>
@@ -1036,6 +1036,18 @@
   </si>
   <si>
     <t>Group #84</t>
+  </si>
+  <si>
+    <t>Bassem Nabil</t>
+  </si>
+  <si>
+    <t>01224446379</t>
+  </si>
+  <si>
+    <t>#185</t>
+  </si>
+  <si>
+    <t>#85</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,6 +3088,20 @@
         <v>338</v>
       </c>
     </row>
+    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/Rooms Lookup.xlsx
+++ b/Rooms Lookup.xlsx
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Rooms Lookup.xlsx
+++ b/Rooms Lookup.xlsx
@@ -30,15 +30,6 @@
     <t>Room Number</t>
   </si>
   <si>
-    <t>Room #101</t>
-  </si>
-  <si>
-    <t>Room #102</t>
-  </si>
-  <si>
-    <t>Room #103</t>
-  </si>
-  <si>
     <t>01275470585</t>
   </si>
   <si>
@@ -540,504 +531,9 @@
     <t>01205739529</t>
   </si>
   <si>
-    <t>Room #104</t>
-  </si>
-  <si>
-    <t>Room #105</t>
-  </si>
-  <si>
-    <t>Room #106</t>
-  </si>
-  <si>
-    <t>Room #107</t>
-  </si>
-  <si>
-    <t>Room #108</t>
-  </si>
-  <si>
-    <t>Room #109</t>
-  </si>
-  <si>
-    <t>Room #110</t>
-  </si>
-  <si>
-    <t>Room #111</t>
-  </si>
-  <si>
-    <t>Room #112</t>
-  </si>
-  <si>
-    <t>Room #113</t>
-  </si>
-  <si>
-    <t>Room #114</t>
-  </si>
-  <si>
-    <t>Room #115</t>
-  </si>
-  <si>
-    <t>Room #116</t>
-  </si>
-  <si>
-    <t>Room #117</t>
-  </si>
-  <si>
-    <t>Room #118</t>
-  </si>
-  <si>
-    <t>Room #119</t>
-  </si>
-  <si>
-    <t>Room #120</t>
-  </si>
-  <si>
-    <t>Room #121</t>
-  </si>
-  <si>
-    <t>Room #122</t>
-  </si>
-  <si>
-    <t>Room #123</t>
-  </si>
-  <si>
-    <t>Room #124</t>
-  </si>
-  <si>
-    <t>Room #125</t>
-  </si>
-  <si>
-    <t>Room #126</t>
-  </si>
-  <si>
-    <t>Room #127</t>
-  </si>
-  <si>
-    <t>Room #128</t>
-  </si>
-  <si>
-    <t>Room #129</t>
-  </si>
-  <si>
-    <t>Room #130</t>
-  </si>
-  <si>
-    <t>Room #131</t>
-  </si>
-  <si>
-    <t>Room #132</t>
-  </si>
-  <si>
-    <t>Room #133</t>
-  </si>
-  <si>
-    <t>Room #134</t>
-  </si>
-  <si>
-    <t>Room #135</t>
-  </si>
-  <si>
-    <t>Room #136</t>
-  </si>
-  <si>
-    <t>Room #137</t>
-  </si>
-  <si>
-    <t>Room #138</t>
-  </si>
-  <si>
-    <t>Room #139</t>
-  </si>
-  <si>
-    <t>Room #140</t>
-  </si>
-  <si>
-    <t>Room #141</t>
-  </si>
-  <si>
-    <t>Room #142</t>
-  </si>
-  <si>
-    <t>Room #143</t>
-  </si>
-  <si>
-    <t>Room #144</t>
-  </si>
-  <si>
-    <t>Room #145</t>
-  </si>
-  <si>
-    <t>Room #146</t>
-  </si>
-  <si>
-    <t>Room #147</t>
-  </si>
-  <si>
-    <t>Room #148</t>
-  </si>
-  <si>
-    <t>Room #149</t>
-  </si>
-  <si>
-    <t>Room #150</t>
-  </si>
-  <si>
-    <t>Room #151</t>
-  </si>
-  <si>
-    <t>Room #152</t>
-  </si>
-  <si>
-    <t>Room #153</t>
-  </si>
-  <si>
-    <t>Room #154</t>
-  </si>
-  <si>
-    <t>Room #155</t>
-  </si>
-  <si>
-    <t>Room #156</t>
-  </si>
-  <si>
-    <t>Room #157</t>
-  </si>
-  <si>
-    <t>Room #158</t>
-  </si>
-  <si>
-    <t>Room #159</t>
-  </si>
-  <si>
-    <t>Room #160</t>
-  </si>
-  <si>
-    <t>Room #161</t>
-  </si>
-  <si>
-    <t>Room #162</t>
-  </si>
-  <si>
-    <t>Room #163</t>
-  </si>
-  <si>
-    <t>Room #164</t>
-  </si>
-  <si>
-    <t>Room #165</t>
-  </si>
-  <si>
-    <t>Room #166</t>
-  </si>
-  <si>
-    <t>Room #167</t>
-  </si>
-  <si>
-    <t>Room #168</t>
-  </si>
-  <si>
-    <t>Room #169</t>
-  </si>
-  <si>
-    <t>Room #170</t>
-  </si>
-  <si>
-    <t>Room #171</t>
-  </si>
-  <si>
-    <t>Room #172</t>
-  </si>
-  <si>
-    <t>Room #173</t>
-  </si>
-  <si>
-    <t>Room #174</t>
-  </si>
-  <si>
-    <t>Room #175</t>
-  </si>
-  <si>
-    <t>Room #176</t>
-  </si>
-  <si>
-    <t>Room #177</t>
-  </si>
-  <si>
-    <t>Room #178</t>
-  </si>
-  <si>
-    <t>Room #179</t>
-  </si>
-  <si>
-    <t>Room #180</t>
-  </si>
-  <si>
-    <t>Room #181</t>
-  </si>
-  <si>
-    <t>Room #182</t>
-  </si>
-  <si>
-    <t>Room #183</t>
-  </si>
-  <si>
-    <t>Room #184</t>
-  </si>
-  <si>
     <t>Group Number</t>
   </si>
   <si>
-    <t>Group #1</t>
-  </si>
-  <si>
-    <t>Group #2</t>
-  </si>
-  <si>
-    <t>Group #3</t>
-  </si>
-  <si>
-    <t>Group #4</t>
-  </si>
-  <si>
-    <t>Group #5</t>
-  </si>
-  <si>
-    <t>Group #6</t>
-  </si>
-  <si>
-    <t>Group #7</t>
-  </si>
-  <si>
-    <t>Group #8</t>
-  </si>
-  <si>
-    <t>Group #9</t>
-  </si>
-  <si>
-    <t>Group #10</t>
-  </si>
-  <si>
-    <t>Group #11</t>
-  </si>
-  <si>
-    <t>Group #12</t>
-  </si>
-  <si>
-    <t>Group #13</t>
-  </si>
-  <si>
-    <t>Group #14</t>
-  </si>
-  <si>
-    <t>Group #15</t>
-  </si>
-  <si>
-    <t>Group #16</t>
-  </si>
-  <si>
-    <t>Group #17</t>
-  </si>
-  <si>
-    <t>Group #18</t>
-  </si>
-  <si>
-    <t>Group #19</t>
-  </si>
-  <si>
-    <t>Group #20</t>
-  </si>
-  <si>
-    <t>Group #21</t>
-  </si>
-  <si>
-    <t>Group #22</t>
-  </si>
-  <si>
-    <t>Group #23</t>
-  </si>
-  <si>
-    <t>Group #24</t>
-  </si>
-  <si>
-    <t>Group #25</t>
-  </si>
-  <si>
-    <t>Group #26</t>
-  </si>
-  <si>
-    <t>Group #27</t>
-  </si>
-  <si>
-    <t>Group #28</t>
-  </si>
-  <si>
-    <t>Group #29</t>
-  </si>
-  <si>
-    <t>Group #30</t>
-  </si>
-  <si>
-    <t>Group #31</t>
-  </si>
-  <si>
-    <t>Group #32</t>
-  </si>
-  <si>
-    <t>Group #33</t>
-  </si>
-  <si>
-    <t>Group #34</t>
-  </si>
-  <si>
-    <t>Group #35</t>
-  </si>
-  <si>
-    <t>Group #36</t>
-  </si>
-  <si>
-    <t>Group #37</t>
-  </si>
-  <si>
-    <t>Group #38</t>
-  </si>
-  <si>
-    <t>Group #39</t>
-  </si>
-  <si>
-    <t>Group #40</t>
-  </si>
-  <si>
-    <t>Group #41</t>
-  </si>
-  <si>
-    <t>Group #42</t>
-  </si>
-  <si>
-    <t>Group #43</t>
-  </si>
-  <si>
-    <t>Group #44</t>
-  </si>
-  <si>
-    <t>Group #45</t>
-  </si>
-  <si>
-    <t>Group #46</t>
-  </si>
-  <si>
-    <t>Group #47</t>
-  </si>
-  <si>
-    <t>Group #48</t>
-  </si>
-  <si>
-    <t>Group #49</t>
-  </si>
-  <si>
-    <t>Group #50</t>
-  </si>
-  <si>
-    <t>Group #51</t>
-  </si>
-  <si>
-    <t>Group #52</t>
-  </si>
-  <si>
-    <t>Group #53</t>
-  </si>
-  <si>
-    <t>Group #54</t>
-  </si>
-  <si>
-    <t>Group #55</t>
-  </si>
-  <si>
-    <t>Group #56</t>
-  </si>
-  <si>
-    <t>Group #57</t>
-  </si>
-  <si>
-    <t>Group #58</t>
-  </si>
-  <si>
-    <t>Group #59</t>
-  </si>
-  <si>
-    <t>Group #60</t>
-  </si>
-  <si>
-    <t>Group #61</t>
-  </si>
-  <si>
-    <t>Group #62</t>
-  </si>
-  <si>
-    <t>Group #63</t>
-  </si>
-  <si>
-    <t>Group #64</t>
-  </si>
-  <si>
-    <t>Group #65</t>
-  </si>
-  <si>
-    <t>Group #66</t>
-  </si>
-  <si>
-    <t>Group #67</t>
-  </si>
-  <si>
-    <t>Group #68</t>
-  </si>
-  <si>
-    <t>Group #69</t>
-  </si>
-  <si>
-    <t>Group #70</t>
-  </si>
-  <si>
-    <t>Group #71</t>
-  </si>
-  <si>
-    <t>Group #72</t>
-  </si>
-  <si>
-    <t>Group #73</t>
-  </si>
-  <si>
-    <t>Group #74</t>
-  </si>
-  <si>
-    <t>Group #75</t>
-  </si>
-  <si>
-    <t>Group #76</t>
-  </si>
-  <si>
-    <t>Group #77</t>
-  </si>
-  <si>
-    <t>Group #78</t>
-  </si>
-  <si>
-    <t>Group #79</t>
-  </si>
-  <si>
-    <t>Group #80</t>
-  </si>
-  <si>
-    <t>Group #81</t>
-  </si>
-  <si>
-    <t>Group #82</t>
-  </si>
-  <si>
-    <t>Group #83</t>
-  </si>
-  <si>
-    <t>Group #84</t>
-  </si>
-  <si>
     <t>Bassem Nabil</t>
   </si>
   <si>
@@ -1048,6 +544,510 @@
   </si>
   <si>
     <t>#85</t>
+  </si>
+  <si>
+    <t>#101</t>
+  </si>
+  <si>
+    <t>#102</t>
+  </si>
+  <si>
+    <t>#103</t>
+  </si>
+  <si>
+    <t>#104</t>
+  </si>
+  <si>
+    <t>#105</t>
+  </si>
+  <si>
+    <t>#106</t>
+  </si>
+  <si>
+    <t>#107</t>
+  </si>
+  <si>
+    <t>#108</t>
+  </si>
+  <si>
+    <t>#109</t>
+  </si>
+  <si>
+    <t>#110</t>
+  </si>
+  <si>
+    <t>#111</t>
+  </si>
+  <si>
+    <t>#112</t>
+  </si>
+  <si>
+    <t>#113</t>
+  </si>
+  <si>
+    <t>#114</t>
+  </si>
+  <si>
+    <t>#115</t>
+  </si>
+  <si>
+    <t>#116</t>
+  </si>
+  <si>
+    <t>#117</t>
+  </si>
+  <si>
+    <t>#118</t>
+  </si>
+  <si>
+    <t>#119</t>
+  </si>
+  <si>
+    <t>#120</t>
+  </si>
+  <si>
+    <t>#121</t>
+  </si>
+  <si>
+    <t>#122</t>
+  </si>
+  <si>
+    <t>#123</t>
+  </si>
+  <si>
+    <t>#124</t>
+  </si>
+  <si>
+    <t>#125</t>
+  </si>
+  <si>
+    <t>#126</t>
+  </si>
+  <si>
+    <t>#127</t>
+  </si>
+  <si>
+    <t>#128</t>
+  </si>
+  <si>
+    <t>#129</t>
+  </si>
+  <si>
+    <t>#130</t>
+  </si>
+  <si>
+    <t>#131</t>
+  </si>
+  <si>
+    <t>#132</t>
+  </si>
+  <si>
+    <t>#133</t>
+  </si>
+  <si>
+    <t>#134</t>
+  </si>
+  <si>
+    <t>#135</t>
+  </si>
+  <si>
+    <t>#136</t>
+  </si>
+  <si>
+    <t>#137</t>
+  </si>
+  <si>
+    <t>#138</t>
+  </si>
+  <si>
+    <t>#139</t>
+  </si>
+  <si>
+    <t>#140</t>
+  </si>
+  <si>
+    <t>#141</t>
+  </si>
+  <si>
+    <t>#142</t>
+  </si>
+  <si>
+    <t>#143</t>
+  </si>
+  <si>
+    <t>#144</t>
+  </si>
+  <si>
+    <t>#145</t>
+  </si>
+  <si>
+    <t>#146</t>
+  </si>
+  <si>
+    <t>#147</t>
+  </si>
+  <si>
+    <t>#148</t>
+  </si>
+  <si>
+    <t>#149</t>
+  </si>
+  <si>
+    <t>#150</t>
+  </si>
+  <si>
+    <t>#151</t>
+  </si>
+  <si>
+    <t>#152</t>
+  </si>
+  <si>
+    <t>#153</t>
+  </si>
+  <si>
+    <t>#154</t>
+  </si>
+  <si>
+    <t>#155</t>
+  </si>
+  <si>
+    <t>#156</t>
+  </si>
+  <si>
+    <t>#157</t>
+  </si>
+  <si>
+    <t>#158</t>
+  </si>
+  <si>
+    <t>#159</t>
+  </si>
+  <si>
+    <t>#160</t>
+  </si>
+  <si>
+    <t>#161</t>
+  </si>
+  <si>
+    <t>#162</t>
+  </si>
+  <si>
+    <t>#163</t>
+  </si>
+  <si>
+    <t>#164</t>
+  </si>
+  <si>
+    <t>#165</t>
+  </si>
+  <si>
+    <t>#166</t>
+  </si>
+  <si>
+    <t>#167</t>
+  </si>
+  <si>
+    <t>#168</t>
+  </si>
+  <si>
+    <t>#169</t>
+  </si>
+  <si>
+    <t>#170</t>
+  </si>
+  <si>
+    <t>#171</t>
+  </si>
+  <si>
+    <t>#172</t>
+  </si>
+  <si>
+    <t>#173</t>
+  </si>
+  <si>
+    <t>#174</t>
+  </si>
+  <si>
+    <t>#175</t>
+  </si>
+  <si>
+    <t>#176</t>
+  </si>
+  <si>
+    <t>#177</t>
+  </si>
+  <si>
+    <t>#178</t>
+  </si>
+  <si>
+    <t>#179</t>
+  </si>
+  <si>
+    <t>#180</t>
+  </si>
+  <si>
+    <t>#181</t>
+  </si>
+  <si>
+    <t>#182</t>
+  </si>
+  <si>
+    <t>#183</t>
+  </si>
+  <si>
+    <t>#184</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#24</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>#34</t>
+  </si>
+  <si>
+    <t>#35</t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>#37</t>
+  </si>
+  <si>
+    <t>#38</t>
+  </si>
+  <si>
+    <t>#39</t>
+  </si>
+  <si>
+    <t>#40</t>
+  </si>
+  <si>
+    <t>#41</t>
+  </si>
+  <si>
+    <t>#42</t>
+  </si>
+  <si>
+    <t>#43</t>
+  </si>
+  <si>
+    <t>#44</t>
+  </si>
+  <si>
+    <t>#45</t>
+  </si>
+  <si>
+    <t>#46</t>
+  </si>
+  <si>
+    <t>#47</t>
+  </si>
+  <si>
+    <t>#48</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t>#50</t>
+  </si>
+  <si>
+    <t>#51</t>
+  </si>
+  <si>
+    <t>#52</t>
+  </si>
+  <si>
+    <t>#53</t>
+  </si>
+  <si>
+    <t>#54</t>
+  </si>
+  <si>
+    <t>#55</t>
+  </si>
+  <si>
+    <t>#56</t>
+  </si>
+  <si>
+    <t>#57</t>
+  </si>
+  <si>
+    <t>#58</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>#60</t>
+  </si>
+  <si>
+    <t>#61</t>
+  </si>
+  <si>
+    <t>#62</t>
+  </si>
+  <si>
+    <t>#63</t>
+  </si>
+  <si>
+    <t>#64</t>
+  </si>
+  <si>
+    <t>#65</t>
+  </si>
+  <si>
+    <t>#66</t>
+  </si>
+  <si>
+    <t>#67</t>
+  </si>
+  <si>
+    <t>#68</t>
+  </si>
+  <si>
+    <t>#69</t>
+  </si>
+  <si>
+    <t>#70</t>
+  </si>
+  <si>
+    <t>#71</t>
+  </si>
+  <si>
+    <t>#72</t>
+  </si>
+  <si>
+    <t>#73</t>
+  </si>
+  <si>
+    <t>#74</t>
+  </si>
+  <si>
+    <t>#75</t>
+  </si>
+  <si>
+    <t>#76</t>
+  </si>
+  <si>
+    <t>#77</t>
+  </si>
+  <si>
+    <t>#78</t>
+  </si>
+  <si>
+    <t>#79</t>
+  </si>
+  <si>
+    <t>#80</t>
+  </si>
+  <si>
+    <t>#81</t>
+  </si>
+  <si>
+    <t>#82</t>
+  </si>
+  <si>
+    <t>#83</t>
+  </si>
+  <si>
+    <t>#84</t>
   </si>
 </sst>
 </file>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,1197 +1909,1197 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="54" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="36" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>339</v>
+        <v>171</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>340</v>
+        <v>172</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>341</v>
+        <v>173</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>342</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
